--- a/wyniki_GA/srednie_ga_nowe_ ackley.ga .xlsx
+++ b/wyniki_GA/srednie_ga_nowe_ ackley.ga .xlsx
@@ -145,25 +145,25 @@
         <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0039337669328590895</v>
+        <v>-0.005445415939153612</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0019344375836881091</v>
+        <v>0.0017732871330551343</v>
       </c>
       <c r="F2" t="n">
-        <v>0.16964295562490492</v>
+        <v>0.17073597764897733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1570463606211289</v>
+        <v>0.14762383638314816</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I2" t="n">
-        <v>61.56</v>
+        <v>62.56</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07399999999999636</v>
+        <v>0.07239999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -177,25 +177,25 @@
         <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.553984752577962E-4</v>
+        <v>3.4202999640824735E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.424918958545148E-4</v>
+        <v>0.0031990425105815645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.023888633917927605</v>
+        <v>0.05594593704940671</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005516301275803151</v>
+        <v>0.03904919325530441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="I3" t="n">
-        <v>67.3</v>
+        <v>69.98</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11379999999999199</v>
+        <v>0.11739999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -209,25 +209,25 @@
         <v>70.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.449241938041359E-5</v>
+        <v>3.5189360940551096E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.044361816494795E-4</v>
+        <v>-1.8375397850538738E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0012124106637649134</v>
+        <v>0.002122044909120078</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5185213212921434E-6</v>
+        <v>2.847715544966025E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="I4" t="n">
-        <v>82.86</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.19280000000004294</v>
+        <v>0.31619999999999865</v>
       </c>
     </row>
     <row r="5">
@@ -241,25 +241,25 @@
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.415734617387182E-5</v>
+        <v>-5.361577160693303E-5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.8365102747011335E-5</v>
+        <v>-1.577306097741054E-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0011710361850443718</v>
+        <v>8.19661675654828E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>6.652235101177112E-6</v>
+        <v>1.8318548429481967E-6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="I5" t="n">
-        <v>77.08</v>
+        <v>77.98</v>
       </c>
       <c r="J5" t="n">
-        <v>0.22999999999990905</v>
+        <v>0.27800000000000097</v>
       </c>
     </row>
     <row r="6">
@@ -273,25 +273,25 @@
         <v>200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.6021551172272081E-6</v>
+        <v>3.424445810232461E-5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.755051820542577E-6</v>
+        <v>-1.016659700736072E-5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3770533239712678E-4</v>
+        <v>4.102396503581929E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.467702106556634E-7</v>
+        <v>1.2454322841375446E-6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="I6" t="n">
-        <v>83.06</v>
+        <v>80.72</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4307999999999811</v>
+        <v>0.4517999999999995</v>
       </c>
     </row>
   </sheetData>
